--- a/src/main/resources/Data Network.xlsx
+++ b/src/main/resources/Data Network.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev Framework\Workspace\Backend\iaas\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="6" activeTab="17"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -17913,10 +17913,10 @@
   </sheetPr>
   <dimension ref="A1:AA160"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="R79" sqref="R79:R81"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18031,7 +18031,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>(1,12),</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>(2,12),</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>(3,8),</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>(4,8),</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>(5,8),</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>(6,14),</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>(7,14),</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>(8,8),</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>(9,8),</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>(10,13),</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>(11,13),</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>(12,13),</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>(13,13),</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -18731,7 +18731,7 @@
         <v>(14,13),</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>(15,13),</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>(16,13),</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>38899</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>28856</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>37898</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -19235,7 +19235,7 @@
         <v>28491</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>38961</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>38031</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>38718</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>28856</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>36526</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>28491</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>28856</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>28856</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>28491</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>28856</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>28491</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>28856</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>39083</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>30714</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>38997</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>39387</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>39814</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>38895</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>37927</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>26299</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -20756,7 +20756,7 @@
         <v>21916</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>37622</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -20987,7 +20987,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>39448</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>27760</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>21916</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -21215,7 +21215,7 @@
         <v>37987</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>38353</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -21327,7 +21327,7 @@
         <v>39814</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -21383,7 +21383,7 @@
         <v>39448</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>26299</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -21495,7 +21495,7 @@
         <v>37622</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>28795</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -21607,7 +21607,7 @@
         <v>27760</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>37987</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>28795</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -21775,7 +21775,7 @@
         <v>37622</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -21831,7 +21831,7 @@
         <v>28795</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -21887,7 +21887,7 @@
         <v>37987</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>36462</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -21993,7 +21993,7 @@
         <v>(72,0),</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -22043,7 +22043,7 @@
         <v>(73,0),</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>(74,0),</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>(75,0),</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -22195,7 +22195,7 @@
         <v>(76,0),</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>(77,8),</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>(78,8),</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -23987,10 +23987,8 @@
   <autoFilter ref="A2:Q101">
     <filterColumn colId="13">
       <filters>
-        <filter val="12"/>
-        <filter val="13"/>
-        <filter val="14"/>
-        <filter val="8"/>
+        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
     <sortState ref="A19:N78">
@@ -25612,7 +25610,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26581,7 +26579,7 @@
   </sheetPr>
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K30" workbookViewId="0">
+    <sheetView topLeftCell="K30" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC45"/>
     </sheetView>
   </sheetViews>
@@ -31545,7 +31543,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C45"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31695,16 +31693,16 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="57">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>24</v>
       </c>
     </row>
